--- a/Predictions/Week 7/Week 7.xlsx
+++ b/Predictions/Week 7/Week 7.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\greg_yonan\Desktop\Tools\Programs\NFL\2025 Season\Predictions\Week 7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84C123D7-E1C3-415F-8324-518E9005DAEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0372EEE7-56E8-4ED0-BE66-F15FF941C227}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -151,7 +151,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -198,6 +198,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFBFBFBF"/>
         <bgColor rgb="FFBFBFBF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -248,7 +254,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -273,6 +279,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -575,10 +584,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -620,19 +629,19 @@
       <c r="B2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="10" t="s">
         <v>7</v>
       </c>
       <c r="F2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="10" t="s">
         <v>7</v>
       </c>
     </row>
@@ -646,13 +655,13 @@
       <c r="C3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="10" t="s">
         <v>10</v>
       </c>
       <c r="G3" s="8" t="s">
@@ -666,13 +675,13 @@
       <c r="B4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F4" s="8" t="s">
@@ -689,7 +698,7 @@
       <c r="B5" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="10" t="s">
         <v>13</v>
       </c>
       <c r="D5" s="8" t="s">
@@ -698,10 +707,10 @@
       <c r="E5" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="10" t="s">
         <v>13</v>
       </c>
     </row>
@@ -738,13 +747,13 @@
       <c r="C7" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="10" t="s">
         <v>18</v>
       </c>
       <c r="E7" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="10" t="s">
         <v>18</v>
       </c>
       <c r="G7" s="8" t="s">
@@ -761,10 +770,10 @@
       <c r="C8" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="10" t="s">
         <v>20</v>
       </c>
       <c r="F8" s="8" t="s">
@@ -790,7 +799,7 @@
       <c r="E9" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="10" t="s">
         <v>21</v>
       </c>
       <c r="G9" s="8" t="s">
@@ -813,7 +822,7 @@
       <c r="E10" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="F10" s="10" t="s">
         <v>24</v>
       </c>
       <c r="G10" s="8" t="s">
@@ -827,7 +836,7 @@
       <c r="B11" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="10" t="s">
         <v>25</v>
       </c>
       <c r="D11" s="8" t="s">
@@ -836,7 +845,7 @@
       <c r="E11" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="F11" s="10" t="s">
         <v>25</v>
       </c>
       <c r="G11" s="8" t="s">
@@ -885,7 +894,7 @@
       <c r="F13" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="G13" s="8" t="s">
+      <c r="G13" s="10" t="s">
         <v>29</v>
       </c>
     </row>
@@ -896,19 +905,19 @@
       <c r="B14" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="10" t="s">
         <v>31</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="E14" s="10" t="s">
         <v>31</v>
       </c>
       <c r="F14" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="G14" s="8" t="s">
+      <c r="G14" s="10" t="s">
         <v>31</v>
       </c>
     </row>
@@ -922,16 +931,16 @@
       <c r="C15" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="E15" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="F15" s="8" t="s">
+      <c r="F15" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="G15" s="8" t="s">
+      <c r="G15" s="10" t="s">
         <v>33</v>
       </c>
     </row>
@@ -942,13 +951,13 @@
       <c r="B16" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="11" t="s">
         <v>35</v>
       </c>
       <c r="D16" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="E16" s="11" t="s">
         <v>35</v>
       </c>
       <c r="F16" s="9" t="s">
@@ -956,6 +965,23 @@
       </c>
       <c r="G16" s="9" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C17" s="12">
+        <v>0.6</v>
+      </c>
+      <c r="D17" s="12">
+        <v>0.6</v>
+      </c>
+      <c r="E17" s="12">
+        <v>0.5333</v>
+      </c>
+      <c r="F17" s="12">
+        <v>0.5333</v>
+      </c>
+      <c r="G17" s="12">
+        <v>0.66669999999999996</v>
       </c>
     </row>
   </sheetData>
